--- a/Created CSVs/Combined_Species_Count_By_Year_2019_edited.xlsx
+++ b/Created CSVs/Combined_Species_Count_By_Year_2019_edited.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Combined_Species_Count_By_Year_" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
   <si>
     <t>Grouped Corrected Common Name</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>tube worm</t>
+  </si>
+  <si>
+    <t>Distinct Species Caught</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,8 +580,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -752,19 +761,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -877,6 +873,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -922,7 +946,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -931,21 +955,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1267,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,67 +1304,69 @@
     <col min="1" max="1" width="32.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="32.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14">
+    <row r="1" spans="1:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13">
         <v>2008</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="13">
         <v>2009</v>
       </c>
-      <c r="D1" s="14">
+      <c r="D1" s="13">
         <v>2010</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="13">
         <v>2011</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <v>2012</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="13">
         <v>2013</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="13">
         <v>2014</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="13">
         <v>2015</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="13">
         <v>2016</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="13">
         <v>2017</v>
       </c>
-      <c r="L1" s="14">
+      <c r="L1" s="13">
         <v>2018</v>
       </c>
-      <c r="M1" s="15">
+      <c r="M1" s="14">
         <v>2019</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="24"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1378,21 +1406,22 @@
       <c r="M2" s="5">
         <v>2</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>9</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="1">
+        <f>COUNTIF(B2:M2, "&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="13">
+      <c r="R2" s="12">
         <v>10371</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1432,21 +1461,22 @@
       <c r="M3" s="5">
         <v>0</v>
       </c>
-      <c r="N3" s="9">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7">
+      <c r="N3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O66" si="0">COUNTIF(B3:M3, "&gt;0")</f>
         <v>1</v>
       </c>
       <c r="P3" s="4"/>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="11">
         <v>3795</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1486,10 +1516,11 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>49</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P4" s="4"/>
@@ -1500,7 +1531,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1540,10 +1571,11 @@
       <c r="M5" s="5">
         <v>0</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>2</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P5" s="4"/>
@@ -1554,7 +1586,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1594,10 +1626,11 @@
       <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>200</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="P6" s="4"/>
@@ -1608,7 +1641,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1648,11 +1681,12 @@
       <c r="M7" s="5">
         <v>104</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>236</v>
       </c>
-      <c r="O7" s="7">
-        <v>5</v>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="2" t="s">
@@ -1662,7 +1696,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1702,11 +1736,12 @@
       <c r="M8" s="5">
         <v>1435</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>3795</v>
       </c>
-      <c r="O8" s="7">
-        <v>11</v>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="2" t="s">
@@ -1716,7 +1751,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1756,11 +1791,12 @@
       <c r="M9" s="5">
         <v>44</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>102</v>
       </c>
-      <c r="O9" s="7">
-        <v>7</v>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="2" t="s">
@@ -1770,7 +1806,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1810,11 +1846,12 @@
       <c r="M10" s="5">
         <v>68</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>265</v>
       </c>
-      <c r="O10" s="7">
-        <v>8</v>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="2" t="s">
@@ -1824,7 +1861,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1864,10 +1901,11 @@
       <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <v>23</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P11" s="4"/>
@@ -1878,7 +1916,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1918,11 +1956,12 @@
       <c r="M12" s="5">
         <v>14</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>139</v>
       </c>
-      <c r="O12" s="7">
-        <v>11</v>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="2" t="s">
@@ -1932,7 +1971,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1972,11 +2011,12 @@
       <c r="M13" s="5">
         <v>28</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <v>94</v>
       </c>
-      <c r="O13" s="7">
-        <v>8</v>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="2" t="s">
@@ -1986,7 +2026,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -2026,10 +2066,11 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="9">
-        <v>1</v>
-      </c>
-      <c r="O14" s="7">
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P14" s="4"/>
@@ -2040,7 +2081,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2080,10 +2121,11 @@
       <c r="M15" s="5">
         <v>0</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <v>4</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P15" s="4"/>
@@ -2094,7 +2136,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2134,11 +2176,12 @@
       <c r="M16" s="5">
         <v>11</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="8">
         <v>21</v>
       </c>
-      <c r="O16" s="7">
-        <v>3</v>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="2" t="s">
@@ -2188,11 +2231,12 @@
       <c r="M17" s="5">
         <v>5</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="8">
         <v>2590</v>
       </c>
-      <c r="O17" s="7">
-        <v>11</v>
+      <c r="O17" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="2" t="s">
@@ -2242,11 +2286,12 @@
       <c r="M18" s="5">
         <v>1</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <v>11</v>
       </c>
-      <c r="O18" s="7">
-        <v>4</v>
+      <c r="O18" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="2" t="s">
@@ -2296,11 +2341,12 @@
       <c r="M19" s="5">
         <v>3</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <v>68</v>
       </c>
-      <c r="O19" s="7">
-        <v>10</v>
+      <c r="O19" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="2" t="s">
@@ -2350,10 +2396,11 @@
       <c r="M20" s="5">
         <v>0</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <v>30</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P20" s="4"/>
@@ -2404,10 +2451,11 @@
       <c r="M21" s="5">
         <v>0</v>
       </c>
-      <c r="N21" s="9">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7">
+      <c r="N21" s="8">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P21" s="4"/>
@@ -2458,11 +2506,12 @@
       <c r="M22" s="5">
         <v>12</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <v>71</v>
       </c>
-      <c r="O22" s="7">
-        <v>11</v>
+      <c r="O22" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="2" t="s">
@@ -2512,11 +2561,12 @@
       <c r="M23" s="5">
         <v>10</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <v>249</v>
       </c>
-      <c r="O23" s="7">
-        <v>7</v>
+      <c r="O23" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="2" t="s">
@@ -2566,11 +2616,12 @@
       <c r="M24" s="5">
         <v>7</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <v>9</v>
       </c>
-      <c r="O24" s="7">
-        <v>1</v>
+      <c r="O24" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="2" t="s">
@@ -2620,10 +2671,11 @@
       <c r="M25" s="5">
         <v>0</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <v>13</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P25" s="4"/>
@@ -2674,11 +2726,12 @@
       <c r="M26" s="5">
         <v>2</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="8">
         <v>4</v>
       </c>
-      <c r="O26" s="7">
-        <v>2</v>
+      <c r="O26" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="2" t="s">
@@ -2728,11 +2781,12 @@
       <c r="M27" s="5">
         <v>22</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="8">
         <v>187</v>
       </c>
-      <c r="O27" s="7">
-        <v>10</v>
+      <c r="O27" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="2" t="s">
@@ -2782,10 +2836,11 @@
       <c r="M28" s="5">
         <v>0</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="8">
         <v>11</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P28" s="4"/>
@@ -2836,10 +2891,11 @@
       <c r="M29" s="5">
         <v>0</v>
       </c>
-      <c r="N29" s="9">
-        <v>1</v>
-      </c>
-      <c r="O29" s="7">
+      <c r="N29" s="8">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P29" s="4"/>
@@ -2890,10 +2946,11 @@
       <c r="M30" s="5">
         <v>0</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="8">
         <v>11</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P30" s="4"/>
@@ -2944,10 +3001,11 @@
       <c r="M31" s="5">
         <v>0</v>
       </c>
-      <c r="N31" s="9">
-        <v>1</v>
-      </c>
-      <c r="O31" s="7">
+      <c r="N31" s="8">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P31" s="4"/>
@@ -2998,11 +3056,12 @@
       <c r="M32" s="5">
         <v>17</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="8">
         <v>57</v>
       </c>
-      <c r="O32" s="7">
-        <v>6</v>
+      <c r="O32" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="2" t="s">
@@ -3052,10 +3111,11 @@
       <c r="M33" s="5">
         <v>0</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="8">
         <v>2</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P33" s="4"/>
@@ -3106,11 +3166,12 @@
       <c r="M34" s="5">
         <v>4</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="8">
         <v>4</v>
       </c>
-      <c r="O34" s="7">
-        <v>0</v>
+      <c r="O34" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="2" t="s">
@@ -3160,10 +3221,11 @@
       <c r="M35" s="5">
         <v>0</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="8">
         <v>8</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P35" s="4"/>
@@ -3214,11 +3276,12 @@
       <c r="M36" s="5">
         <v>10</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="8">
         <v>65</v>
       </c>
-      <c r="O36" s="7">
-        <v>11</v>
+      <c r="O36" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="2" t="s">
@@ -3268,10 +3331,11 @@
       <c r="M37" s="5">
         <v>0</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="8">
         <v>3</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P37" s="4"/>
@@ -3322,10 +3386,11 @@
       <c r="M38" s="5">
         <v>0</v>
       </c>
-      <c r="N38" s="9">
-        <v>1</v>
-      </c>
-      <c r="O38" s="7">
+      <c r="N38" s="8">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P38" s="4"/>
@@ -3376,10 +3441,11 @@
       <c r="M39" s="5">
         <v>0</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="8">
         <v>90</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P39" s="4"/>
@@ -3430,11 +3496,12 @@
       <c r="M40" s="5">
         <v>2</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="8">
         <v>14</v>
       </c>
-      <c r="O40" s="7">
-        <v>8</v>
+      <c r="O40" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="2" t="s">
@@ -3484,10 +3551,11 @@
       <c r="M41" s="5">
         <v>0</v>
       </c>
-      <c r="N41" s="9">
-        <v>1</v>
-      </c>
-      <c r="O41" s="7">
+      <c r="N41" s="8">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P41" s="4"/>
@@ -3538,11 +3606,12 @@
       <c r="M42" s="5">
         <v>3</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="8">
         <v>14</v>
       </c>
-      <c r="O42" s="7">
-        <v>7</v>
+      <c r="O42" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="2" t="s">
@@ -3592,11 +3661,12 @@
       <c r="M43" s="5">
         <v>2</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43" s="8">
         <v>67</v>
       </c>
-      <c r="O43" s="7">
-        <v>5</v>
+      <c r="O43" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="2" t="s">
@@ -3646,11 +3716,12 @@
       <c r="M44" s="5">
         <v>2</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="8">
         <v>7</v>
       </c>
-      <c r="O44" s="7">
-        <v>2</v>
+      <c r="O44" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="2" t="s">
@@ -3700,10 +3771,11 @@
       <c r="M45" s="5">
         <v>0</v>
       </c>
-      <c r="N45" s="9">
-        <v>1</v>
-      </c>
-      <c r="O45" s="7">
+      <c r="N45" s="8">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P45" s="4"/>
@@ -3754,10 +3826,11 @@
       <c r="M46" s="5">
         <v>0</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="8">
         <v>5</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P46" s="4"/>
@@ -3808,11 +3881,12 @@
       <c r="M47" s="5">
         <v>239</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="8">
         <v>577</v>
       </c>
-      <c r="O47" s="7">
-        <v>9</v>
+      <c r="O47" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="2" t="s">
@@ -3862,10 +3936,11 @@
       <c r="M48" s="5">
         <v>0</v>
       </c>
-      <c r="N48" s="9">
-        <v>1</v>
-      </c>
-      <c r="O48" s="7">
+      <c r="N48" s="8">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P48" s="4"/>
@@ -3916,10 +3991,11 @@
       <c r="M49" s="5">
         <v>0</v>
       </c>
-      <c r="N49" s="9">
-        <v>1</v>
-      </c>
-      <c r="O49" s="7">
+      <c r="N49" s="8">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P49" s="4"/>
@@ -3970,11 +4046,12 @@
       <c r="M50" s="5">
         <v>128</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="8">
         <v>559</v>
       </c>
-      <c r="O50" s="7">
-        <v>11</v>
+      <c r="O50" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="2" t="s">
@@ -4024,11 +4101,12 @@
       <c r="M51" s="5">
         <v>60</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="8">
         <v>72</v>
       </c>
-      <c r="O51" s="7">
-        <v>4</v>
+      <c r="O51" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="2" t="s">
@@ -4078,11 +4156,12 @@
       <c r="M52" s="5">
         <v>8</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="8">
         <v>14</v>
       </c>
-      <c r="O52" s="7">
-        <v>3</v>
+      <c r="O52" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="P52" s="4"/>
       <c r="Q52" s="2" t="s">
@@ -4132,10 +4211,11 @@
       <c r="M53" s="5">
         <v>0</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N53" s="8">
         <v>3</v>
       </c>
-      <c r="O53" s="7">
+      <c r="O53" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P53" s="4"/>
@@ -4186,10 +4266,11 @@
       <c r="M54" s="5">
         <v>0</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N54" s="8">
         <v>3</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O54" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P54" s="4"/>
@@ -4240,11 +4321,12 @@
       <c r="M55" s="5">
         <v>3</v>
       </c>
-      <c r="N55" s="9">
+      <c r="N55" s="8">
         <v>3</v>
       </c>
-      <c r="O55" s="7">
-        <v>0</v>
+      <c r="O55" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="P55" s="4"/>
       <c r="Q55" s="2" t="s">
@@ -4294,10 +4376,11 @@
       <c r="M56" s="5">
         <v>0</v>
       </c>
-      <c r="N56" s="9">
+      <c r="N56" s="8">
         <v>6</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O56" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P56" s="4"/>
@@ -4348,10 +4431,11 @@
       <c r="M57" s="5">
         <v>0</v>
       </c>
-      <c r="N57" s="9">
-        <v>1</v>
-      </c>
-      <c r="O57" s="7">
+      <c r="N57" s="8">
+        <v>1</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P57" s="4"/>
@@ -4402,11 +4486,12 @@
       <c r="M58" s="5">
         <v>3</v>
       </c>
-      <c r="N58" s="9">
+      <c r="N58" s="8">
         <v>3</v>
       </c>
-      <c r="O58" s="7">
-        <v>0</v>
+      <c r="O58" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="P58" s="4"/>
       <c r="Q58" s="2" t="s">
@@ -4456,11 +4541,12 @@
       <c r="M59" s="5">
         <v>8</v>
       </c>
-      <c r="N59" s="9">
+      <c r="N59" s="8">
         <v>219</v>
       </c>
-      <c r="O59" s="7">
-        <v>11</v>
+      <c r="O59" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="P59" s="4"/>
       <c r="Q59" s="2" t="s">
@@ -4510,10 +4596,11 @@
       <c r="M60" s="5">
         <v>0</v>
       </c>
-      <c r="N60" s="9">
-        <v>1</v>
-      </c>
-      <c r="O60" s="7">
+      <c r="N60" s="8">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P60" s="4"/>
@@ -4564,11 +4651,12 @@
       <c r="M61" s="5">
         <v>9</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N61" s="8">
         <v>26</v>
       </c>
-      <c r="O61" s="7">
-        <v>4</v>
+      <c r="O61" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="P61" s="4"/>
       <c r="Q61" s="2" t="s">
@@ -4618,10 +4706,11 @@
       <c r="M62" s="5">
         <v>0</v>
       </c>
-      <c r="N62" s="9">
-        <v>1</v>
-      </c>
-      <c r="O62" s="7">
+      <c r="N62" s="8">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P62" s="4"/>
@@ -4672,10 +4761,11 @@
       <c r="M63" s="5">
         <v>0</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N63" s="8">
         <v>285</v>
       </c>
-      <c r="O63" s="7">
+      <c r="O63" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="P63" s="4"/>
@@ -4726,10 +4816,11 @@
       <c r="M64" s="5">
         <v>0</v>
       </c>
-      <c r="N64" s="9">
-        <v>1</v>
-      </c>
-      <c r="O64" s="7">
+      <c r="N64" s="8">
+        <v>1</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P64" s="4"/>
@@ -4780,11 +4871,12 @@
       <c r="M65" s="5">
         <v>44</v>
       </c>
-      <c r="N65" s="9">
+      <c r="N65" s="8">
         <v>44</v>
       </c>
-      <c r="O65" s="7">
-        <v>0</v>
+      <c r="O65" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="P65" s="4"/>
       <c r="Q65" s="2" t="s">
@@ -4834,10 +4926,11 @@
       <c r="M66" s="5">
         <v>0</v>
       </c>
-      <c r="N66" s="9">
+      <c r="N66" s="8">
         <v>2</v>
       </c>
-      <c r="O66" s="7">
+      <c r="O66" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P66" s="4"/>
@@ -4888,10 +4981,11 @@
       <c r="M67" s="5">
         <v>0</v>
       </c>
-      <c r="N67" s="9">
+      <c r="N67" s="8">
         <v>2</v>
       </c>
-      <c r="O67" s="7">
+      <c r="O67" s="1">
+        <f t="shared" ref="O67:O70" si="1">COUNTIF(B67:M67, "&gt;0")</f>
         <v>1</v>
       </c>
       <c r="P67" s="4"/>
@@ -4942,11 +5036,12 @@
       <c r="M68" s="5">
         <v>1</v>
       </c>
-      <c r="N68" s="9">
+      <c r="N68" s="8">
         <v>7</v>
       </c>
-      <c r="O68" s="7">
-        <v>3</v>
+      <c r="O68" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="P68" s="4"/>
       <c r="Q68" s="2" t="s">
@@ -4956,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>61</v>
       </c>
@@ -4996,10 +5091,11 @@
       <c r="M69" s="5">
         <v>0</v>
       </c>
-      <c r="N69" s="9">
+      <c r="N69" s="22">
         <v>3</v>
       </c>
-      <c r="O69" s="7">
+      <c r="O69" s="1">
+        <f>COUNTIF(B69:M69, "&gt;0")</f>
         <v>1</v>
       </c>
       <c r="P69" s="4"/>
@@ -5010,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>4</v>
       </c>
@@ -5050,12 +5146,10 @@
       <c r="M70" s="5">
         <v>2311</v>
       </c>
-      <c r="N70" s="9">
+      <c r="N70" s="23">
         <v>10371</v>
       </c>
-      <c r="O70" s="7">
-        <v>11</v>
-      </c>
+      <c r="O70" s="10"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="2" t="s">
         <v>32</v>
@@ -5064,8 +5158,142 @@
         <v>1</v>
       </c>
     </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1">
+        <f>COUNTIF(B2:B69,"&gt;0")</f>
+        <v>15</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" ref="C71:N71" si="2">COUNTIF(C2:C69,"&gt;0")</f>
+        <v>14</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K71" s="1">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L71" s="1">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N71"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:M69">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N69">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:M70">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O69">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O69">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R70">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:M71">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
